--- a/Output_testing/R1_201907/Country/HKD/MN/ESTONIA_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/ESTONIA_201907_HKD_MN.xlsx
@@ -553,8 +553,10 @@
       <c r="F7" s="8" t="n">
         <v>0.614449</v>
       </c>
-      <c r="G7" s="8" t="n">
-        <v>0.205428</v>
+      <c r="G7" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
       <c r="H7" s="9" t="n">
         <v>-17.14414395687391</v>

--- a/Output_testing/R1_201907/Country/HKD/MN/ESTONIA_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/ESTONIA_201907_HKD_MN.xlsx
@@ -812,136 +812,433 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>142.858577</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>15.97662218218243</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>165.651505</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>14.40918696640695</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>263.99668</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>17.38944356232016</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>113.293642</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>26.60833313604954</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>-25.01623625269605</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>213.097995</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>23.83186382918822</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>105.294155</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>9.159006227349598</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>186.754294</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>12.30149278973488</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>96.576515</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>22.68212089288016</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>-0.880142813283169</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>62.566717</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>6.997163346296878</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>30.915341</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>2.689169220643219</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>44.11881</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>2.906103048461542</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>24.534676</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>5.762254799726884</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>4.480659111964425</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>60.070387</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>6.717985700196935</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>42.795035</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>3.722523743740989</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>70.971949</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>4.674917508975358</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>24.287302</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>5.704156130772477</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>-42.98232067778991</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>115.309143</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>12.89562482385811</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>217.939298</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>18.95743773779466</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>350.400371</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>23.08084887931373</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>23.211901</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>5.45158566381864</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>-91.19232974777057</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>16.15216</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>1.806380569968576</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>20.954486</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>1.822724801437554</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>22.159325</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>1.459633247912853</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>14.424617</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>3.387789532760571</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>6.852085822911058</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>844</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>WOMEN'S OR GIRLS' COATS, CAPES, JACKETS, SUITS, TROUSERS, SHORTS, SHIRTS, DRESSES AND SKIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES, OF TEXTILE FABRICS, KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>84.755066</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>9.478602516864882</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>170.326874</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>14.81587367932237</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>131.5754</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>8.666862751795591</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>10.049161</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>2.360162661429815</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>-89.96540000735732</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>23.150515</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>2.589043228940653</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>24.465929</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>2.128167475857451</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>17.473885</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>1.151003630128882</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>9.871496</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>2.318435964122157</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>-12.6209202499495</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>4.440967</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>0.4966565772424021</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>9.836788</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>0.8556524580981519</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>5.676551</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>0.373914032718639</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>8.835122</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>2.075031443279405</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>150.8675752670418</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>762</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>RADIO-BROADCAST RECEIVERS</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>11.844142</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>1.324592375059976</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>9.923733</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>0.8632153640964659</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>13.222865</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>0.8709892285375656</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>8.67483</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>2.037384997638231</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>65.52488827566624</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>159.926925</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>17.88546485020094</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>351.521088</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>30.57704232525258</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>411.793214</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>27.1247913201008</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>92.023298</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>21.61274477752212</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>-69.82764250287674</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -973,136 +1270,573 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D31" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E31" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F31" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G31" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H31" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>47.602079560722</v>
+      </c>
+      <c r="K31" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>4.528100553626984</v>
+      </c>
+      <c r="E32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>8.360205522067531</v>
+      </c>
+      <c r="G32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>7.567430331890848</v>
+      </c>
+      <c r="I32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>38.63154000428374</v>
+      </c>
+      <c r="K32" s="9" t="n">
+        <v>191.0371130996039</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>1.374746609755608</v>
+      </c>
+      <c r="G33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J33" s="9" t="n">
+        <v>12.4428023443737</v>
+      </c>
+      <c r="K33" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D34" s="9" t="n">
+        <v>0.2515226474317667</v>
+      </c>
+      <c r="E34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>3.359218721775839</v>
+      </c>
+      <c r="G34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H34" s="9" t="n">
+        <v>5.909359442362182</v>
+      </c>
+      <c r="I34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J34" s="9" t="n">
+        <v>1.323578090620558</v>
+      </c>
+      <c r="K34" s="9" t="n">
+        <v>-88.62485880433418</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="n">
+        <v>0.6197549999999999</v>
+      </c>
+      <c r="D35" s="9" t="n">
+        <v>42.94281497495167</v>
+      </c>
+      <c r="E35" s="8" t="n">
+        <v>0.63478</v>
+      </c>
+      <c r="F35" s="9" t="n">
+        <v>53.08483806439958</v>
+      </c>
+      <c r="G35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H35" s="9" t="n">
+        <v>73.58283600429002</v>
+      </c>
+      <c r="I35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K35" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>ALCOHOLIC BEVERAGES</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="n">
+        <v>15.73513210135739</v>
+      </c>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F36" s="9" t="n">
+        <v>18.2719454349615</v>
+      </c>
+      <c r="G36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H36" s="9" t="n">
+        <v>12.94037422145695</v>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K36" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="n">
+        <v>24.73153595110898</v>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F37" s="9" t="n">
+        <v>15.42669913629886</v>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>TULLES, LACE, EMBROIDERY, RIBBONS, TRIMMINGS AND OTHER SMALL WARES</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="n">
+        <v>0.1493892087776554</v>
+      </c>
+      <c r="E38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F38" s="9" t="n">
+        <v>0.1223465107410703</v>
+      </c>
+      <c r="G38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>642</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>PAPER AND PAPERBOARD, CUT TO SIZE OR SHAPE, AND ARTICLES OF PAPER OR PAPERBOARD</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D39" s="9" t="n">
+        <v>9.603591992849275</v>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>831</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>TRAVEL GOODS, HANDBAGS AND SIMILAR CONTAINERS</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="n">
+        <v>2.057912569896273</v>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1134,136 +1868,433 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>142.858577</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>16.00245041334945</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>165.651505</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>14.42419031751467</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>263.99668</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>17.39648456578482</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>113.293642</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>26.62117709839729</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>-25.01623625269605</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>213.097995</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>23.87039105234605</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>105.294155</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>9.168542906035709</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>186.754294</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>12.30647367673352</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>96.576515</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>22.69306965487986</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>-0.880142813283169</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>62.566717</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>7.008475146147984</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>30.915341</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>2.69196927800242</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>44.11881</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>2.907279732554944</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>24.534676</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>5.765036266093357</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>4.480659111964425</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>60.070387</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>6.728846174060739</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>42.795035</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>3.726399766091479</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>70.971949</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>4.676810387850967</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>24.189514</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>5.68393181426863</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>-43.21189104445972</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>115.309143</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>12.9164722329785</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>217.939298</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>18.97717688720996</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>350.400371</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>23.09019433860599</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>23.211901</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>5.454217168792801</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>-91.19232974777057</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>16.15216</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>1.809300812708546</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>20.954486</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>1.824622686462744</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>22.159325</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>1.460224254906197</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>14.424617</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>3.38942483403925</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>6.852085822911058</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>844</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>WOMEN'S OR GIRLS' COATS, CAPES, JACKETS, SUITS, TROUSERS, SHORTS, SHIRTS, DRESSES AND SKIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES, OF TEXTILE FABRICS, KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>84.755066</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>9.49392587709424</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>170.326874</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>14.83130048690678</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>131.5754</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>8.670371973378471</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>10.049161</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>2.361301922585445</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>-89.96540000735732</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>23.150515</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>2.593228744893649</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>24.465929</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>2.130383398513653</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>17.473885</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>1.151469672674668</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>9.871496</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>2.319555083612904</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>-12.6209202499495</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>3.821212</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>0.4280369917789107</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>9.202007999999999</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>0.8012695972505202</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>5.224422</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>0.344271665416954</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>8.835122</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>2.076033070310742</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>166.4526429565792</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>762</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>RADIO-BROADCAST RECEIVERS</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="n">
+        <v>11.844142</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>1.326733746225609</v>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>9.923733</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>0.8641141742249839</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>13.222865</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>0.8713418929660645</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>8.67483</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>2.038368452560557</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>65.52488827566624</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>159.10347</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>17.82213880841632</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>350.960084</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>30.56003050178708</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>411.630894</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>27.1250778391274</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>91.91565799999999</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>21.59788463445917</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>-69.85001655900091</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1295,136 +2326,453 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>98.13583</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>66.53419782741629</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>79.07661299999999</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>59.64610333487366</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>67.242293</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>51.40609018924602</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>51.498226</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>57.3912259500191</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>11.32254572779718</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="n">
+        <v>1.592864</v>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>1.079931035261735</v>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>2.967437</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>2.238285723513822</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>10.732991</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>8.205269016426401</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>9.622930999999999</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>10.72409382261912</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>77.29794374918471</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="n">
+        <v>7.419695</v>
+      </c>
+      <c r="D59" s="9" t="n">
+        <v>5.030409942516322</v>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>7.625484</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>5.751768941373673</v>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>12.874279</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>9.842263222575054</v>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>3.689089</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>4.11123560545037</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>-40.53246101335142</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>012</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>OTHER MEAT AND EDIBLE MEAT OFFAL, FRESH, CHILLED OR FROZEN (EXCEPT MEAT AND MEAT OFFAL UNFIT FOR HUMAN CONSUMPTION)</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="n">
+        <v>4.612934</v>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>3.127480180488766</v>
+      </c>
+      <c r="E60" s="8" t="n">
+        <v>5.357642</v>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>4.041175465662131</v>
+      </c>
+      <c r="G60" s="8" t="n">
+        <v>6.35523</v>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>4.858512581559376</v>
+      </c>
+      <c r="I60" s="8" t="n">
+        <v>3.28903</v>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>3.665397403910405</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>-37.25019068976083</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="n">
+        <v>2.537378</v>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>1.720293289565431</v>
+      </c>
+      <c r="E61" s="8" t="n">
+        <v>2.470797</v>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>1.863678875339487</v>
+      </c>
+      <c r="G61" s="8" t="n">
+        <v>2.749337</v>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>2.101841853944973</v>
+      </c>
+      <c r="I61" s="8" t="n">
+        <v>2.998716</v>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>3.341862446211981</v>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>23.59274743971038</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>581</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>TUBES, PIPES AND HOSES OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D62" s="9" t="n">
+        <v>0.2971250377957286</v>
+      </c>
+      <c r="E62" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F62" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G62" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H62" s="9" t="n">
+        <v>0.2059934781473428</v>
+      </c>
+      <c r="I62" s="8" t="n">
+        <v>2.468132</v>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>2.750563122047593</v>
+      </c>
+      <c r="K62" s="9" t="n">
+        <v>815.9820673069786</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>MEASURING, CHECKING, ANALYSING AND CONTROLLING INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="n">
+        <v>2.946672</v>
+      </c>
+      <c r="D63" s="9" t="n">
+        <v>1.997786718474877</v>
+      </c>
+      <c r="E63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>0.1238991935566295</v>
+      </c>
+      <c r="G63" s="8" t="n">
+        <v>3.23339</v>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>2.471895745093139</v>
+      </c>
+      <c r="I63" s="8" t="n">
+        <v>2.289033</v>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>2.550969621944843</v>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>39.14806624057618</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D64" s="9" t="n">
+        <v>0.3197221342240951</v>
+      </c>
+      <c r="E64" s="8" t="n">
+        <v>0.612913</v>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>0.4623095343409235</v>
+      </c>
+      <c r="G64" s="8" t="n">
+        <v>3.23411</v>
+      </c>
+      <c r="H64" s="9" t="n">
+        <v>2.472446178210229</v>
+      </c>
+      <c r="I64" s="8" t="n">
+        <v>1.388962</v>
+      </c>
+      <c r="J64" s="9" t="n">
+        <v>1.547902484601905</v>
+      </c>
+      <c r="K64" s="9" t="n">
+        <v>83.64739792680346</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>751</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>OFFICE MACHINES</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="n">
+        <v>0.942512</v>
+      </c>
+      <c r="D65" s="9" t="n">
+        <v>0.639004936960474</v>
+      </c>
+      <c r="E65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F65" s="9" t="n">
+        <v>0.1285387850577577</v>
+      </c>
+      <c r="G65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I65" s="8" t="n">
+        <v>1.176838</v>
+      </c>
+      <c r="J65" s="9" t="n">
+        <v>1.311504896587478</v>
+      </c>
+      <c r="K65" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>553</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>PERFUMERY, COSMETICS OR TOILET PREPARATIONS (EXCLUDING SOAPS)</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="n">
+        <v>5.591776</v>
+      </c>
+      <c r="D66" s="9" t="n">
+        <v>3.791116155950366</v>
+      </c>
+      <c r="E66" s="8" t="n">
+        <v>9.871725</v>
+      </c>
+      <c r="F66" s="9" t="n">
+        <v>7.44606916135186</v>
+      </c>
+      <c r="G66" s="8" t="n">
+        <v>5.871277</v>
+      </c>
+      <c r="H66" s="9" t="n">
+        <v>4.48853513945525</v>
+      </c>
+      <c r="I66" s="8" t="n">
+        <v>1.096705</v>
+      </c>
+      <c r="J66" s="9" t="n">
+        <v>1.222202187227104</v>
+      </c>
+      <c r="K66" s="9" t="n">
+        <v>-67.67195511412775</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>22.807335</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>15.46293274134591</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>24.225871</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>18.27314992668337</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>18.243724</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>13.94715259534222</v>
+      </c>
+      <c r="I67" s="8" t="n">
+        <v>10.214218</v>
+      </c>
+      <c r="J67" s="9" t="n">
+        <v>11.3830424593801</v>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>-4.046846384759806</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
